--- a/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
+++ b/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1870EE3-CADF-446A-81C4-216D2E20ED38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A2D86-236B-4197-A69D-38C47474CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="360" windowWidth="25230" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <definedName name="_ＩＯ２" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="_ＩＯ２" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="condcoverage01.gif" localSheetId="3">カバレッジ参照!#REF!</definedName>
-    <definedName name="DB属性">[2]CODE!$H$3:$H$13</definedName>
+    <definedName name="DB属性">[1]CODE!$H$3:$H$13</definedName>
     <definedName name="HH" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HH" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="HTML_CodePage" hidden="1">932</definedName>
@@ -704,8 +704,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!A1:X44</definedName>
     <definedName name="Print_Title" localSheetId="2">#REF!</definedName>
     <definedName name="Print_Title">#REF!</definedName>
-    <definedName name="S_GAIIRAI_3" localSheetId="2">[3]外注業務_3!#REF!</definedName>
-    <definedName name="S_GAIIRAI_3">[3]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3" localSheetId="2">[2]外注業務_3!#REF!</definedName>
+    <definedName name="S_GAIIRAI_3">[2]外注業務_3!#REF!</definedName>
     <definedName name="S_GAIRAI_31" localSheetId="2">#REF!</definedName>
     <definedName name="S_GAIRAI_31">#REF!</definedName>
     <definedName name="SSGAIIRAI_3" localSheetId="2">#REF!</definedName>
@@ -730,11 +730,11 @@
     <definedName name="スケジュール" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="スケジュールORG" localSheetId="0" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
     <definedName name="スケジュールORG" hidden="1">{#N/A,#N/A,TRUE,"カスタマイズ仕様書";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(1)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(2)";#N/A,#N/A,TRUE,"Ｉ・Ｏ関連表(3)";#N/A,#N/A,TRUE,"レポート記述書";#N/A,#N/A,TRUE,"画面記述書"}</definedName>
-    <definedName name="ソフト名">[4]定数!$B$2:$B$6</definedName>
-    <definedName name="可否" localSheetId="0">[5]定数!$A$2:$A$4</definedName>
-    <definedName name="可否">[4]定数!$A$2:$A$4</definedName>
-    <definedName name="質問者リスト">[1]リスト!$A$1:$A$10</definedName>
-    <definedName name="詳細有り無しリスト">[1]リスト!$C$1:$C$2</definedName>
+    <definedName name="ソフト名">[3]定数!$B$2:$B$6</definedName>
+    <definedName name="可否" localSheetId="0">[4]定数!$A$2:$A$4</definedName>
+    <definedName name="可否">[3]定数!$A$2:$A$4</definedName>
+    <definedName name="質問者リスト">[5]リスト!$A$1:$A$10</definedName>
+    <definedName name="詳細有り無しリスト">[5]リスト!$C$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1557,7 +1557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1632,66 +1632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
@@ -1703,39 +1643,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1751,39 +1661,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1807,31 +1684,144 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1868,56 +1858,72 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规 2" xfId="3" xr:uid="{14029D53-A3FE-4779-8312-6FCC10D87771}"/>
@@ -2130,22 +2136,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="QA一覧"/>
-      <sheetName val="リスト"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="表紙"/>
@@ -2171,8 +2162,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="外注業務_3"/>
@@ -2184,8 +2175,27 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="機能一覧使用状況アンケート"/>
+      <sheetName val="機能一覧"/>
+      <sheetName val="意見"/>
+      <sheetName val="定数"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="機能一覧使用状況アンケート"/>
@@ -2204,19 +2214,15 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="機能一覧使用状況アンケート"/>
-      <sheetName val="機能一覧"/>
-      <sheetName val="意見"/>
-      <sheetName val="定数"/>
+      <sheetName val="QA一覧"/>
+      <sheetName val="リスト"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2600,16 +2606,16 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
@@ -2621,7 +2627,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="25" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="22"/>
@@ -2655,58 +2661,58 @@
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="58"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="34"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="64"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
@@ -2731,58 +2737,58 @@
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="36"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="66"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="39"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="69"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="42"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="72"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
@@ -2996,8 +3002,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
@@ -3127,1892 +3133,1982 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7323CA8-FF03-4FDE-8853-9CC6AB22B3BA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:CB22"/>
+  <dimension ref="A1:CF22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX15" sqref="AX15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="2.125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="48" customWidth="1"/>
-    <col min="5" max="23" width="2.125" style="46" customWidth="1"/>
-    <col min="24" max="24" width="2.125" style="47" customWidth="1"/>
-    <col min="25" max="27" width="2.125" style="46" customWidth="1"/>
-    <col min="28" max="28" width="2.125" style="48" customWidth="1"/>
-    <col min="29" max="39" width="2.125" style="46" customWidth="1"/>
-    <col min="40" max="40" width="2.125" style="47" customWidth="1"/>
-    <col min="41" max="47" width="2.125" style="46" customWidth="1"/>
-    <col min="48" max="48" width="2.125" style="47" customWidth="1"/>
-    <col min="49" max="51" width="2.125" style="46" customWidth="1"/>
-    <col min="52" max="52" width="2.125" style="48" customWidth="1"/>
-    <col min="53" max="55" width="2.125" style="46" customWidth="1"/>
-    <col min="56" max="59" width="2.125" style="48" customWidth="1"/>
-    <col min="60" max="93" width="2.125" style="46" customWidth="1"/>
-    <col min="94" max="16384" width="8.25" style="46"/>
+    <col min="1" max="3" width="2.125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="2.125" style="28" customWidth="1"/>
+    <col min="5" max="10" width="2.125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="26" customWidth="1"/>
+    <col min="12" max="27" width="2.125" style="26" customWidth="1"/>
+    <col min="28" max="28" width="2.125" style="27" customWidth="1"/>
+    <col min="29" max="31" width="2.125" style="26" customWidth="1"/>
+    <col min="32" max="32" width="2.125" style="28" customWidth="1"/>
+    <col min="33" max="43" width="2.125" style="26" customWidth="1"/>
+    <col min="44" max="44" width="2.125" style="27" customWidth="1"/>
+    <col min="45" max="51" width="2.125" style="26" customWidth="1"/>
+    <col min="52" max="52" width="2.125" style="27" customWidth="1"/>
+    <col min="53" max="55" width="2.125" style="26" customWidth="1"/>
+    <col min="56" max="56" width="2.125" style="28" customWidth="1"/>
+    <col min="57" max="59" width="2.125" style="26" customWidth="1"/>
+    <col min="60" max="63" width="2.125" style="28" customWidth="1"/>
+    <col min="64" max="97" width="2.125" style="26" customWidth="1"/>
+    <col min="98" max="16384" width="8.25" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="90" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="86"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87"/>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
-      <c r="AL1" s="87"/>
-      <c r="AM1" s="87"/>
-      <c r="AN1" s="87"/>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
-      <c r="AQ1" s="87"/>
-      <c r="AR1" s="87"/>
-      <c r="AS1" s="87"/>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
-      <c r="AV1" s="87"/>
-      <c r="AW1" s="87"/>
-      <c r="AX1" s="87"/>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
-      <c r="BA1" s="87"/>
-      <c r="BB1" s="87"/>
-      <c r="BC1" s="87"/>
-      <c r="BD1" s="87"/>
-      <c r="BE1" s="87"/>
-      <c r="BF1" s="87"/>
-      <c r="BG1" s="87"/>
-      <c r="BH1" s="87"/>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
-      <c r="BK1" s="87"/>
-      <c r="BL1" s="87"/>
-      <c r="BM1" s="89"/>
-    </row>
-    <row r="2" spans="1:80" s="90" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="91" t="s">
+    <row r="1" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="46"/>
+    </row>
+    <row r="2" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A2" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="93"/>
-      <c r="AS2" s="93"/>
-      <c r="AT2" s="93"/>
-      <c r="AU2" s="93"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="94"/>
-      <c r="AX2" s="94"/>
-      <c r="AY2" s="94"/>
-      <c r="AZ2" s="94"/>
-      <c r="BA2" s="94"/>
-      <c r="BB2" s="94"/>
-      <c r="BC2" s="94"/>
-      <c r="BD2" s="94"/>
-      <c r="BE2" s="94"/>
-      <c r="BF2" s="94"/>
-      <c r="BG2" s="94"/>
-      <c r="BH2" s="94"/>
-      <c r="BI2" s="94"/>
-      <c r="BJ2" s="94"/>
-      <c r="BK2" s="94"/>
-      <c r="BL2" s="94"/>
-      <c r="BM2" s="89"/>
-    </row>
-    <row r="3" spans="1:80" s="90" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="92"/>
-      <c r="AQ3" s="93"/>
-      <c r="AR3" s="93"/>
-      <c r="AS3" s="93"/>
-      <c r="AT3" s="93"/>
-      <c r="AU3" s="93"/>
-      <c r="AV3" s="93"/>
-      <c r="AW3" s="93"/>
-      <c r="AX3" s="93"/>
-      <c r="AY3" s="93"/>
-      <c r="AZ3" s="93"/>
-      <c r="BA3" s="93"/>
-      <c r="BB3" s="93"/>
-      <c r="BC3" s="93"/>
-      <c r="BD3" s="93"/>
-      <c r="BE3" s="93"/>
-      <c r="BF3" s="93"/>
-      <c r="BG3" s="93"/>
-      <c r="BH3" s="93"/>
-      <c r="BI3" s="93"/>
-      <c r="BJ3" s="93"/>
-      <c r="BK3" s="93"/>
-      <c r="BL3" s="93"/>
-      <c r="BM3" s="95"/>
-    </row>
-    <row r="4" spans="1:80" s="90" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AU2" s="48"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="49"/>
+      <c r="BJ2" s="49"/>
+      <c r="BK2" s="49"/>
+      <c r="BL2" s="49"/>
+      <c r="BM2" s="49"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49"/>
+      <c r="BQ2" s="46"/>
+    </row>
+    <row r="3" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
+      <c r="BB3" s="48"/>
+      <c r="BC3" s="48"/>
+      <c r="BD3" s="48"/>
+      <c r="BE3" s="48"/>
+      <c r="BF3" s="48"/>
+      <c r="BG3" s="48"/>
+      <c r="BH3" s="48"/>
+      <c r="BI3" s="48"/>
+      <c r="BJ3" s="48"/>
+      <c r="BK3" s="48"/>
+      <c r="BL3" s="48"/>
+      <c r="BM3" s="48"/>
+      <c r="BN3" s="48"/>
+      <c r="BO3" s="48"/>
+      <c r="BP3" s="48"/>
+      <c r="BQ3" s="50"/>
+    </row>
+    <row r="4" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A4" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99" t="s">
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="102" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="105" t="s">
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106"/>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106"/>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="107"/>
-      <c r="AW4" s="108" t="s">
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="111">
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="76">
         <v>44676</v>
       </c>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="112"/>
-      <c r="BE4" s="112"/>
-      <c r="BF4" s="108" t="s">
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="111" t="s">
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="113"/>
-    </row>
-    <row r="5" spans="1:80" s="90" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="114" t="s">
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="77"/>
+      <c r="BP4" s="77"/>
+      <c r="BQ4" s="52"/>
+    </row>
+    <row r="5" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A5" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="114" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="119"/>
-      <c r="V5" s="120"/>
-      <c r="W5" s="120"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="120"/>
-      <c r="Z5" s="120"/>
-      <c r="AA5" s="120"/>
-      <c r="AB5" s="120"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="120"/>
-      <c r="AI5" s="120"/>
-      <c r="AJ5" s="120"/>
-      <c r="AK5" s="120"/>
-      <c r="AL5" s="120"/>
-      <c r="AM5" s="120"/>
-      <c r="AN5" s="120"/>
-      <c r="AO5" s="120"/>
-      <c r="AP5" s="120"/>
-      <c r="AQ5" s="120"/>
-      <c r="AR5" s="120"/>
-      <c r="AS5" s="120"/>
-      <c r="AT5" s="120"/>
-      <c r="AU5" s="120"/>
-      <c r="AV5" s="121"/>
-      <c r="AW5" s="122" t="s">
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="124"/>
-      <c r="AZ5" s="123"/>
-      <c r="BA5" s="123"/>
-      <c r="BB5" s="123"/>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="123"/>
-      <c r="BE5" s="123"/>
-      <c r="BF5" s="122" t="s">
+      <c r="BB5" s="87"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="87"/>
+      <c r="BE5" s="87"/>
+      <c r="BF5" s="87"/>
+      <c r="BG5" s="87"/>
+      <c r="BH5" s="87"/>
+      <c r="BI5" s="87"/>
+      <c r="BJ5" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="BG5" s="123"/>
-      <c r="BH5" s="124"/>
-      <c r="BI5" s="123"/>
-      <c r="BJ5" s="120"/>
-      <c r="BK5" s="120"/>
-      <c r="BL5" s="120"/>
-      <c r="BM5" s="125"/>
-    </row>
-    <row r="6" spans="1:80" ht="19.5" thickTop="1">
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="AB6" s="46"/>
-      <c r="AG6" s="56"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="50"/>
-      <c r="BJ6" s="50"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="50"/>
-      <c r="BM6" s="50"/>
-    </row>
-    <row r="7" spans="1:80">
-      <c r="A7" s="51" t="s">
+      <c r="BK5" s="87"/>
+      <c r="BL5" s="88"/>
+      <c r="BM5" s="87"/>
+      <c r="BN5" s="84"/>
+      <c r="BO5" s="84"/>
+      <c r="BP5" s="84"/>
+      <c r="BQ5" s="54"/>
+    </row>
+    <row r="6" spans="1:84" ht="19.5" thickTop="1">
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="AF6" s="26"/>
+      <c r="AK6" s="29"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="127"/>
+      <c r="BN6" s="127"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="127"/>
+      <c r="BQ6" s="127"/>
+    </row>
+    <row r="7" spans="1:84">
+      <c r="A7" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="57" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="51" t="s">
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="120"/>
+      <c r="AK7" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="69" t="s">
+      <c r="AL7" s="121"/>
+      <c r="AM7" s="122"/>
+      <c r="AN7" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="51" t="s">
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="113"/>
+      <c r="AQ7" s="114"/>
+      <c r="AR7" s="115"/>
+      <c r="AS7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="AP7" s="65"/>
-      <c r="AQ7" s="65"/>
-      <c r="AR7" s="65"/>
-      <c r="AS7" s="65"/>
-      <c r="AT7" s="65"/>
-      <c r="AU7" s="65"/>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="66"/>
-      <c r="BC7" s="51" t="s">
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="108"/>
+      <c r="BG7" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="65"/>
-      <c r="BG7" s="65"/>
-      <c r="BH7" s="65"/>
-      <c r="BI7" s="65"/>
-      <c r="BJ7" s="65"/>
-      <c r="BK7" s="65"/>
-      <c r="BL7" s="65"/>
-      <c r="BM7" s="65"/>
-      <c r="BN7" s="65"/>
-      <c r="BO7" s="65"/>
-      <c r="BP7" s="65"/>
-      <c r="BQ7" s="66"/>
-      <c r="BR7" s="69" t="s">
+      <c r="BH7" s="107"/>
+      <c r="BI7" s="107"/>
+      <c r="BJ7" s="107"/>
+      <c r="BK7" s="107"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="107"/>
+      <c r="BN7" s="107"/>
+      <c r="BO7" s="107"/>
+      <c r="BP7" s="107"/>
+      <c r="BQ7" s="107"/>
+      <c r="BR7" s="107"/>
+      <c r="BS7" s="107"/>
+      <c r="BT7" s="107"/>
+      <c r="BU7" s="108"/>
+      <c r="BV7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="BS7" s="75"/>
-      <c r="BT7" s="70"/>
-      <c r="BU7" s="71"/>
-      <c r="BV7" s="69" t="s">
+      <c r="BW7" s="113"/>
+      <c r="BX7" s="114"/>
+      <c r="BY7" s="115"/>
+      <c r="BZ7" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="BW7" s="70"/>
-      <c r="BX7" s="71"/>
-      <c r="BY7" s="69" t="s">
+      <c r="CA7" s="114"/>
+      <c r="CB7" s="115"/>
+      <c r="CC7" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="BZ7" s="75"/>
-      <c r="CA7" s="70"/>
-      <c r="CB7" s="71"/>
-    </row>
-    <row r="8" spans="1:80">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="57" t="s">
+      <c r="CD7" s="113"/>
+      <c r="CE7" s="114"/>
+      <c r="CF7" s="115"/>
+    </row>
+    <row r="8" spans="1:84">
+      <c r="A8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="124"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="57" t="s">
+      <c r="Q8" s="90"/>
+      <c r="R8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="58"/>
-      <c r="P8" s="57" t="s">
+      <c r="S8" s="90"/>
+      <c r="T8" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="57" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="S8" s="58"/>
-      <c r="T8" s="57" t="s">
+      <c r="W8" s="90"/>
+      <c r="X8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="58"/>
-      <c r="V8" s="57" t="s">
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="W8" s="58"/>
-      <c r="X8" s="57" t="s">
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="57" t="s">
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="60" t="s">
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="43"/>
-      <c r="AS8" s="43"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="43"/>
-      <c r="AX8" s="43"/>
-      <c r="AY8" s="43"/>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="43"/>
-      <c r="BE8" s="43"/>
-      <c r="BF8" s="43"/>
-      <c r="BG8" s="43"/>
-      <c r="BH8" s="43"/>
-      <c r="BI8" s="43"/>
-      <c r="BJ8" s="43"/>
-      <c r="BK8" s="43"/>
-      <c r="BL8" s="43"/>
-      <c r="BM8" s="43"/>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="68"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="73"/>
-      <c r="BT8" s="73"/>
-      <c r="BU8" s="74"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="73"/>
-      <c r="BX8" s="74"/>
-      <c r="BY8" s="72"/>
-      <c r="BZ8" s="73"/>
-      <c r="CA8" s="73"/>
-      <c r="CB8" s="74"/>
-    </row>
-    <row r="9" spans="1:80">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="82" t="s">
+      <c r="AI8" s="31"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="123"/>
+      <c r="AL8" s="124"/>
+      <c r="AM8" s="125"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="117"/>
+      <c r="AQ8" s="117"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="109"/>
+      <c r="AT8" s="110"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="110"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="109"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="110"/>
+      <c r="BJ8" s="110"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="110"/>
+      <c r="BM8" s="110"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="110"/>
+      <c r="BP8" s="110"/>
+      <c r="BQ8" s="110"/>
+      <c r="BR8" s="110"/>
+      <c r="BS8" s="110"/>
+      <c r="BT8" s="110"/>
+      <c r="BU8" s="111"/>
+      <c r="BV8" s="116"/>
+      <c r="BW8" s="117"/>
+      <c r="BX8" s="117"/>
+      <c r="BY8" s="118"/>
+      <c r="BZ8" s="116"/>
+      <c r="CA8" s="117"/>
+      <c r="CB8" s="118"/>
+      <c r="CC8" s="116"/>
+      <c r="CD8" s="117"/>
+      <c r="CE8" s="117"/>
+      <c r="CF8" s="118"/>
+    </row>
+    <row r="9" spans="1:84">
+      <c r="A9" s="41"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AH9" s="61"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="82"/>
-      <c r="AK9" s="61"/>
-      <c r="AL9" s="61"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="84"/>
-      <c r="AO9" s="82"/>
-      <c r="AP9" s="61"/>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
-      <c r="AS9" s="61"/>
-      <c r="AT9" s="61"/>
-      <c r="AU9" s="61"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="61"/>
-      <c r="AX9" s="61"/>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="82"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="61"/>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="61"/>
-      <c r="BO9" s="61"/>
-      <c r="BP9" s="61"/>
-      <c r="BQ9" s="62"/>
-      <c r="BR9" s="82"/>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="61"/>
-      <c r="BU9" s="62"/>
-      <c r="BV9" s="82"/>
-      <c r="BW9" s="61"/>
-      <c r="BX9" s="62"/>
-      <c r="BY9" s="82"/>
-      <c r="BZ9" s="61"/>
-      <c r="CA9" s="61"/>
-      <c r="CB9" s="62"/>
-    </row>
-    <row r="10" spans="1:80">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="82" t="s">
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="41"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="42"/>
+      <c r="BJ9" s="42"/>
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31"/>
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31"/>
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="41"/>
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="41"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="41"/>
+      <c r="CD9" s="31"/>
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="32"/>
+    </row>
+    <row r="10" spans="1:84">
+      <c r="A10" s="41"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="84"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="61"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="61"/>
-      <c r="AX10" s="61"/>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="83"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="62"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="83"/>
-      <c r="BE10" s="83"/>
-      <c r="BF10" s="83"/>
-      <c r="BG10" s="83"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="61"/>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
-      <c r="BO10" s="61"/>
-      <c r="BP10" s="61"/>
-      <c r="BQ10" s="62"/>
-      <c r="BR10" s="82"/>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
-      <c r="BU10" s="62"/>
-      <c r="BV10" s="82"/>
-      <c r="BW10" s="61"/>
-      <c r="BX10" s="62"/>
-      <c r="BY10" s="82"/>
-      <c r="BZ10" s="61"/>
-      <c r="CA10" s="61"/>
-      <c r="CB10" s="62"/>
-    </row>
-    <row r="11" spans="1:80">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="82"/>
-      <c r="AH11" s="61"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="84"/>
-      <c r="AO11" s="82"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="85"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="83"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="82"/>
-      <c r="BD11" s="83"/>
-      <c r="BE11" s="83"/>
-      <c r="BF11" s="83"/>
-      <c r="BG11" s="83"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="61"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="61"/>
-      <c r="BQ11" s="62"/>
-      <c r="BR11" s="82"/>
-      <c r="BS11" s="61"/>
-      <c r="BT11" s="61"/>
-      <c r="BU11" s="62"/>
-      <c r="BV11" s="82"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="62"/>
-      <c r="BY11" s="82"/>
-      <c r="BZ11" s="61"/>
-      <c r="CA11" s="61"/>
-      <c r="CB11" s="62"/>
-    </row>
-    <row r="12" spans="1:80">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="82"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="82"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="84"/>
-      <c r="AO12" s="82"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="85"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="61"/>
-      <c r="BB12" s="62"/>
-      <c r="BC12" s="82"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="83"/>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="61"/>
-      <c r="BJ12" s="61"/>
-      <c r="BK12" s="61"/>
-      <c r="BL12" s="61"/>
-      <c r="BM12" s="61"/>
-      <c r="BN12" s="61"/>
-      <c r="BO12" s="61"/>
-      <c r="BP12" s="61"/>
-      <c r="BQ12" s="62"/>
-      <c r="BR12" s="82"/>
-      <c r="BS12" s="61"/>
-      <c r="BT12" s="61"/>
-      <c r="BU12" s="62"/>
-      <c r="BV12" s="82"/>
-      <c r="BW12" s="61"/>
-      <c r="BX12" s="62"/>
-      <c r="BY12" s="82"/>
-      <c r="BZ12" s="61"/>
-      <c r="CA12" s="61"/>
-      <c r="CB12" s="62"/>
-    </row>
-    <row r="13" spans="1:80">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="82"/>
-      <c r="AH13" s="61"/>
-      <c r="AI13" s="62"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="61"/>
-      <c r="AL13" s="61"/>
-      <c r="AM13" s="61"/>
-      <c r="AN13" s="84"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="61"/>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
-      <c r="AS13" s="61"/>
-      <c r="AT13" s="61"/>
-      <c r="AU13" s="61"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="61"/>
-      <c r="AX13" s="61"/>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="83"/>
-      <c r="BA13" s="61"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="83"/>
-      <c r="BE13" s="83"/>
-      <c r="BF13" s="83"/>
-      <c r="BG13" s="83"/>
-      <c r="BH13" s="61"/>
-      <c r="BI13" s="61"/>
-      <c r="BJ13" s="61"/>
-      <c r="BK13" s="61"/>
-      <c r="BL13" s="61"/>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="61"/>
-      <c r="BO13" s="61"/>
-      <c r="BP13" s="61"/>
-      <c r="BQ13" s="62"/>
-      <c r="BR13" s="82"/>
-      <c r="BS13" s="61"/>
-      <c r="BT13" s="61"/>
-      <c r="BU13" s="62"/>
-      <c r="BV13" s="82"/>
-      <c r="BW13" s="61"/>
-      <c r="BX13" s="62"/>
-      <c r="BY13" s="82"/>
-      <c r="BZ13" s="61"/>
-      <c r="CA13" s="61"/>
-      <c r="CB13" s="62"/>
-    </row>
-    <row r="14" spans="1:80">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="58"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="82"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="82"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-      <c r="AM14" s="61"/>
-      <c r="AN14" s="84"/>
-      <c r="AO14" s="82"/>
-      <c r="AP14" s="61"/>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
-      <c r="AS14" s="61"/>
-      <c r="AT14" s="61"/>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="85"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="83"/>
-      <c r="BA14" s="61"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="82"/>
-      <c r="BD14" s="83"/>
-      <c r="BE14" s="83"/>
-      <c r="BF14" s="83"/>
-      <c r="BG14" s="83"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="61"/>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="61"/>
-      <c r="BP14" s="61"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="82"/>
-      <c r="BS14" s="61"/>
-      <c r="BT14" s="61"/>
-      <c r="BU14" s="62"/>
-      <c r="BV14" s="82"/>
-      <c r="BW14" s="61"/>
-      <c r="BX14" s="62"/>
-      <c r="BY14" s="82"/>
-      <c r="BZ14" s="61"/>
-      <c r="CA14" s="61"/>
-      <c r="CB14" s="62"/>
-    </row>
-    <row r="15" spans="1:80">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="61"/>
-      <c r="AI15" s="62"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="61"/>
-      <c r="AL15" s="61"/>
-      <c r="AM15" s="61"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="82"/>
-      <c r="AP15" s="61"/>
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="61"/>
-      <c r="AT15" s="61"/>
-      <c r="AU15" s="61"/>
-      <c r="AV15" s="85"/>
-      <c r="AW15" s="61"/>
-      <c r="AX15" s="61"/>
-      <c r="AY15" s="61"/>
-      <c r="AZ15" s="83"/>
-      <c r="BA15" s="61"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="82"/>
-      <c r="BD15" s="83"/>
-      <c r="BE15" s="83"/>
-      <c r="BF15" s="83"/>
-      <c r="BG15" s="83"/>
-      <c r="BH15" s="61"/>
-      <c r="BI15" s="61"/>
-      <c r="BJ15" s="61"/>
-      <c r="BK15" s="61"/>
-      <c r="BL15" s="61"/>
-      <c r="BM15" s="61"/>
-      <c r="BN15" s="61"/>
-      <c r="BO15" s="61"/>
-      <c r="BP15" s="61"/>
-      <c r="BQ15" s="62"/>
-      <c r="BR15" s="82"/>
-      <c r="BS15" s="61"/>
-      <c r="BT15" s="61"/>
-      <c r="BU15" s="62"/>
-      <c r="BV15" s="82"/>
-      <c r="BW15" s="61"/>
-      <c r="BX15" s="62"/>
-      <c r="BY15" s="82"/>
-      <c r="BZ15" s="61"/>
-      <c r="CA15" s="61"/>
-      <c r="CB15" s="62"/>
-    </row>
-    <row r="16" spans="1:80">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="61"/>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="82"/>
-      <c r="AK16" s="61"/>
-      <c r="AL16" s="61"/>
-      <c r="AM16" s="61"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="82"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="61"/>
-      <c r="AT16" s="61"/>
-      <c r="AU16" s="61"/>
-      <c r="AV16" s="85"/>
-      <c r="AW16" s="61"/>
-      <c r="AX16" s="61"/>
-      <c r="AY16" s="61"/>
-      <c r="AZ16" s="83"/>
-      <c r="BA16" s="61"/>
-      <c r="BB16" s="62"/>
-      <c r="BC16" s="82"/>
-      <c r="BD16" s="83"/>
-      <c r="BE16" s="83"/>
-      <c r="BF16" s="83"/>
-      <c r="BG16" s="83"/>
-      <c r="BH16" s="61"/>
-      <c r="BI16" s="61"/>
-      <c r="BJ16" s="61"/>
-      <c r="BK16" s="61"/>
-      <c r="BL16" s="61"/>
-      <c r="BM16" s="61"/>
-      <c r="BN16" s="61"/>
-      <c r="BO16" s="61"/>
-      <c r="BP16" s="61"/>
-      <c r="BQ16" s="62"/>
-      <c r="BR16" s="82"/>
-      <c r="BS16" s="61"/>
-      <c r="BT16" s="61"/>
-      <c r="BU16" s="62"/>
-      <c r="BV16" s="82"/>
-      <c r="BW16" s="61"/>
-      <c r="BX16" s="62"/>
-      <c r="BY16" s="82"/>
-      <c r="BZ16" s="61"/>
-      <c r="CA16" s="61"/>
-      <c r="CB16" s="62"/>
-    </row>
-    <row r="17" spans="1:80">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="61"/>
-      <c r="AI17" s="62"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="61"/>
-      <c r="AL17" s="61"/>
-      <c r="AM17" s="61"/>
-      <c r="AN17" s="84"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="61"/>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="61"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="61"/>
-      <c r="AV17" s="85"/>
-      <c r="AW17" s="61"/>
-      <c r="AX17" s="61"/>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="83"/>
-      <c r="BA17" s="61"/>
-      <c r="BB17" s="62"/>
-      <c r="BC17" s="82"/>
-      <c r="BD17" s="83"/>
-      <c r="BE17" s="83"/>
-      <c r="BF17" s="83"/>
-      <c r="BG17" s="83"/>
-      <c r="BH17" s="61"/>
-      <c r="BI17" s="61"/>
-      <c r="BJ17" s="61"/>
-      <c r="BK17" s="61"/>
-      <c r="BL17" s="61"/>
-      <c r="BM17" s="61"/>
-      <c r="BN17" s="61"/>
-      <c r="BO17" s="61"/>
-      <c r="BP17" s="61"/>
-      <c r="BQ17" s="62"/>
-      <c r="BR17" s="82"/>
-      <c r="BS17" s="61"/>
-      <c r="BT17" s="61"/>
-      <c r="BU17" s="62"/>
-      <c r="BV17" s="82"/>
-      <c r="BW17" s="61"/>
-      <c r="BX17" s="62"/>
-      <c r="BY17" s="82"/>
-      <c r="BZ17" s="61"/>
-      <c r="CA17" s="61"/>
-      <c r="CB17" s="62"/>
-    </row>
-    <row r="18" spans="1:80">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="82"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="84"/>
-      <c r="AO18" s="82"/>
-      <c r="AP18" s="61"/>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="61"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
-      <c r="AV18" s="85"/>
-      <c r="AW18" s="61"/>
-      <c r="AX18" s="61"/>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="83"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="62"/>
-      <c r="BC18" s="82"/>
-      <c r="BD18" s="83"/>
-      <c r="BE18" s="83"/>
-      <c r="BF18" s="83"/>
-      <c r="BG18" s="83"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61"/>
-      <c r="BK18" s="61"/>
-      <c r="BL18" s="61"/>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
-      <c r="BO18" s="61"/>
-      <c r="BP18" s="61"/>
-      <c r="BQ18" s="62"/>
-      <c r="BR18" s="82"/>
-      <c r="BS18" s="61"/>
-      <c r="BT18" s="61"/>
-      <c r="BU18" s="62"/>
-      <c r="BV18" s="82"/>
-      <c r="BW18" s="61"/>
-      <c r="BX18" s="62"/>
-      <c r="BY18" s="82"/>
-      <c r="BZ18" s="61"/>
-      <c r="CA18" s="61"/>
-      <c r="CB18" s="62"/>
-    </row>
-    <row r="19" spans="1:80">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="61"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="82"/>
-      <c r="AK19" s="61"/>
-      <c r="AL19" s="61"/>
-      <c r="AM19" s="61"/>
-      <c r="AN19" s="84"/>
-      <c r="AO19" s="82"/>
-      <c r="AP19" s="61"/>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="61"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61"/>
-      <c r="AV19" s="85"/>
-      <c r="AW19" s="61"/>
-      <c r="AX19" s="61"/>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="83"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="82"/>
-      <c r="BD19" s="83"/>
-      <c r="BE19" s="83"/>
-      <c r="BF19" s="83"/>
-      <c r="BG19" s="83"/>
-      <c r="BH19" s="61"/>
-      <c r="BI19" s="61"/>
-      <c r="BJ19" s="61"/>
-      <c r="BK19" s="61"/>
-      <c r="BL19" s="61"/>
-      <c r="BM19" s="61"/>
-      <c r="BN19" s="61"/>
-      <c r="BO19" s="61"/>
-      <c r="BP19" s="61"/>
-      <c r="BQ19" s="62"/>
-      <c r="BR19" s="82"/>
-      <c r="BS19" s="61"/>
-      <c r="BT19" s="61"/>
-      <c r="BU19" s="62"/>
-      <c r="BV19" s="82"/>
-      <c r="BW19" s="61"/>
-      <c r="BX19" s="62"/>
-      <c r="BY19" s="82"/>
-      <c r="BZ19" s="61"/>
-      <c r="CA19" s="61"/>
-      <c r="CB19" s="62"/>
-    </row>
-    <row r="20" spans="1:80">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="61"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="82"/>
-      <c r="AK20" s="61"/>
-      <c r="AL20" s="61"/>
-      <c r="AM20" s="61"/>
-      <c r="AN20" s="84"/>
-      <c r="AO20" s="82"/>
-      <c r="AP20" s="61"/>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="61"/>
-      <c r="AT20" s="61"/>
-      <c r="AU20" s="61"/>
-      <c r="AV20" s="85"/>
-      <c r="AW20" s="61"/>
-      <c r="AX20" s="61"/>
-      <c r="AY20" s="61"/>
-      <c r="AZ20" s="83"/>
-      <c r="BA20" s="61"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="82"/>
-      <c r="BD20" s="83"/>
-      <c r="BE20" s="83"/>
-      <c r="BF20" s="83"/>
-      <c r="BG20" s="83"/>
-      <c r="BH20" s="61"/>
-      <c r="BI20" s="61"/>
-      <c r="BJ20" s="61"/>
-      <c r="BK20" s="61"/>
-      <c r="BL20" s="61"/>
-      <c r="BM20" s="61"/>
-      <c r="BN20" s="61"/>
-      <c r="BO20" s="61"/>
-      <c r="BP20" s="61"/>
-      <c r="BQ20" s="62"/>
-      <c r="BR20" s="82"/>
-      <c r="BS20" s="61"/>
-      <c r="BT20" s="61"/>
-      <c r="BU20" s="62"/>
-      <c r="BV20" s="82"/>
-      <c r="BW20" s="61"/>
-      <c r="BX20" s="62"/>
-      <c r="BY20" s="82"/>
-      <c r="BZ20" s="61"/>
-      <c r="CA20" s="61"/>
-      <c r="CB20" s="62"/>
-    </row>
-    <row r="21" spans="1:80">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="61"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="61"/>
-      <c r="AL21" s="61"/>
-      <c r="AM21" s="61"/>
-      <c r="AN21" s="84"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="61"/>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="61"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="85"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="83"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="82"/>
-      <c r="BD21" s="83"/>
-      <c r="BE21" s="83"/>
-      <c r="BF21" s="83"/>
-      <c r="BG21" s="83"/>
-      <c r="BH21" s="61"/>
-      <c r="BI21" s="61"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="61"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="61"/>
-      <c r="BO21" s="61"/>
-      <c r="BP21" s="61"/>
-      <c r="BQ21" s="62"/>
-      <c r="BR21" s="82"/>
-      <c r="BS21" s="61"/>
-      <c r="BT21" s="61"/>
-      <c r="BU21" s="62"/>
-      <c r="BV21" s="82"/>
-      <c r="BW21" s="61"/>
-      <c r="BX21" s="62"/>
-      <c r="BY21" s="82"/>
-      <c r="BZ21" s="61"/>
-      <c r="CA21" s="61"/>
-      <c r="CB21" s="62"/>
-    </row>
-    <row r="22" spans="1:80">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="58"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="58"/>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="82"/>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="82"/>
-      <c r="AK22" s="61"/>
-      <c r="AL22" s="61"/>
-      <c r="AM22" s="61"/>
-      <c r="AN22" s="84"/>
-      <c r="AO22" s="82"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="61"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="61"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="61"/>
-      <c r="AZ22" s="83"/>
-      <c r="BA22" s="61"/>
-      <c r="BB22" s="62"/>
-      <c r="BC22" s="82"/>
-      <c r="BD22" s="83"/>
-      <c r="BE22" s="83"/>
-      <c r="BF22" s="83"/>
-      <c r="BG22" s="83"/>
-      <c r="BH22" s="61"/>
-      <c r="BI22" s="61"/>
-      <c r="BJ22" s="61"/>
-      <c r="BK22" s="61"/>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="61"/>
-      <c r="BN22" s="61"/>
-      <c r="BO22" s="61"/>
-      <c r="BP22" s="61"/>
-      <c r="BQ22" s="62"/>
-      <c r="BR22" s="82"/>
-      <c r="BS22" s="61"/>
-      <c r="BT22" s="61"/>
-      <c r="BU22" s="62"/>
-      <c r="BV22" s="82"/>
-      <c r="BW22" s="61"/>
-      <c r="BX22" s="62"/>
-      <c r="BY22" s="82"/>
-      <c r="BZ22" s="61"/>
-      <c r="CA22" s="61"/>
-      <c r="CB22" s="62"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="31"/>
+      <c r="AQ10" s="31"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="31"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="31"/>
+      <c r="BC10" s="31"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="31"/>
+      <c r="BF10" s="32"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="42"/>
+      <c r="BJ10" s="42"/>
+      <c r="BK10" s="42"/>
+      <c r="BL10" s="31"/>
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="31"/>
+      <c r="BO10" s="31"/>
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="31"/>
+      <c r="BR10" s="31"/>
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="31"/>
+      <c r="BU10" s="32"/>
+      <c r="BV10" s="41"/>
+      <c r="BW10" s="31"/>
+      <c r="BX10" s="31"/>
+      <c r="BY10" s="32"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="31"/>
+      <c r="CB10" s="32"/>
+      <c r="CC10" s="41"/>
+      <c r="CD10" s="31"/>
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="32"/>
+    </row>
+    <row r="11" spans="1:84">
+      <c r="A11" s="41"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="41"/>
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="31"/>
+      <c r="AQ11" s="31"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="31"/>
+      <c r="BC11" s="31"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="31"/>
+      <c r="BF11" s="32"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="42"/>
+      <c r="BJ11" s="42"/>
+      <c r="BK11" s="42"/>
+      <c r="BL11" s="31"/>
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="31"/>
+      <c r="BO11" s="31"/>
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="31"/>
+      <c r="BR11" s="31"/>
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="31"/>
+      <c r="BU11" s="32"/>
+      <c r="BV11" s="41"/>
+      <c r="BW11" s="31"/>
+      <c r="BX11" s="31"/>
+      <c r="BY11" s="32"/>
+      <c r="BZ11" s="41"/>
+      <c r="CA11" s="31"/>
+      <c r="CB11" s="32"/>
+      <c r="CC11" s="41"/>
+      <c r="CD11" s="31"/>
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="32"/>
+    </row>
+    <row r="12" spans="1:84">
+      <c r="A12" s="41"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="41"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="32"/>
+      <c r="BZ12" s="41"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="32"/>
+      <c r="CC12" s="41"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="32"/>
+    </row>
+    <row r="13" spans="1:84">
+      <c r="A13" s="41"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="34"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="42"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="31"/>
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="31"/>
+      <c r="BO13" s="31"/>
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="31"/>
+      <c r="BR13" s="31"/>
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="31"/>
+      <c r="BU13" s="32"/>
+      <c r="BV13" s="41"/>
+      <c r="BW13" s="31"/>
+      <c r="BX13" s="31"/>
+      <c r="BY13" s="32"/>
+      <c r="BZ13" s="41"/>
+      <c r="CA13" s="31"/>
+      <c r="CB13" s="32"/>
+      <c r="CC13" s="41"/>
+      <c r="CD13" s="31"/>
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="32"/>
+    </row>
+    <row r="14" spans="1:84">
+      <c r="A14" s="41"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="31"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="31"/>
+      <c r="AQ14" s="31"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="31"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="31"/>
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="31"/>
+      <c r="BC14" s="31"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="31"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="41"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="42"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="42"/>
+      <c r="BL14" s="31"/>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="31"/>
+      <c r="BO14" s="31"/>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="31"/>
+      <c r="BR14" s="31"/>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="31"/>
+      <c r="BU14" s="32"/>
+      <c r="BV14" s="41"/>
+      <c r="BW14" s="31"/>
+      <c r="BX14" s="31"/>
+      <c r="BY14" s="32"/>
+      <c r="BZ14" s="41"/>
+      <c r="CA14" s="31"/>
+      <c r="CB14" s="32"/>
+      <c r="CC14" s="41"/>
+      <c r="CD14" s="31"/>
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="32"/>
+    </row>
+    <row r="15" spans="1:84">
+      <c r="A15" s="41"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="42"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="42"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="31"/>
+      <c r="BR15" s="31"/>
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="31"/>
+      <c r="BU15" s="32"/>
+      <c r="BV15" s="41"/>
+      <c r="BW15" s="31"/>
+      <c r="BX15" s="31"/>
+      <c r="BY15" s="32"/>
+      <c r="BZ15" s="41"/>
+      <c r="CA15" s="31"/>
+      <c r="CB15" s="32"/>
+      <c r="CC15" s="41"/>
+      <c r="CD15" s="31"/>
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="32"/>
+    </row>
+    <row r="16" spans="1:84">
+      <c r="A16" s="41"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="31"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="41"/>
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="31"/>
+      <c r="AQ16" s="31"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="31"/>
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="31"/>
+      <c r="BC16" s="31"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="31"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="42"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="31"/>
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="31"/>
+      <c r="BO16" s="31"/>
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="31"/>
+      <c r="BR16" s="31"/>
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="31"/>
+      <c r="BU16" s="32"/>
+      <c r="BV16" s="41"/>
+      <c r="BW16" s="31"/>
+      <c r="BX16" s="31"/>
+      <c r="BY16" s="32"/>
+      <c r="BZ16" s="41"/>
+      <c r="CA16" s="31"/>
+      <c r="CB16" s="32"/>
+      <c r="CC16" s="41"/>
+      <c r="CD16" s="31"/>
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="32"/>
+    </row>
+    <row r="17" spans="1:84">
+      <c r="A17" s="41"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="31"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="31"/>
+      <c r="AQ17" s="31"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="31"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="31"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="31"/>
+      <c r="BC17" s="31"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="31"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="41"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="31"/>
+      <c r="BM17" s="31"/>
+      <c r="BN17" s="31"/>
+      <c r="BO17" s="31"/>
+      <c r="BP17" s="31"/>
+      <c r="BQ17" s="31"/>
+      <c r="BR17" s="31"/>
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="31"/>
+      <c r="BU17" s="32"/>
+      <c r="BV17" s="41"/>
+      <c r="BW17" s="31"/>
+      <c r="BX17" s="31"/>
+      <c r="BY17" s="32"/>
+      <c r="BZ17" s="41"/>
+      <c r="CA17" s="31"/>
+      <c r="CB17" s="32"/>
+      <c r="CC17" s="41"/>
+      <c r="CD17" s="31"/>
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="32"/>
+    </row>
+    <row r="18" spans="1:84">
+      <c r="A18" s="41"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="32"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="41"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="41"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="32"/>
+      <c r="CC18" s="41"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="32"/>
+    </row>
+    <row r="19" spans="1:84">
+      <c r="A19" s="41"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="31"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="31"/>
+      <c r="AQ19" s="31"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="31"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="31"/>
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="31"/>
+      <c r="BC19" s="31"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="31"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="41"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="31"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="31"/>
+      <c r="BO19" s="31"/>
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="31"/>
+      <c r="BR19" s="31"/>
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="31"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="41"/>
+      <c r="BW19" s="31"/>
+      <c r="BX19" s="31"/>
+      <c r="BY19" s="32"/>
+      <c r="BZ19" s="41"/>
+      <c r="CA19" s="31"/>
+      <c r="CB19" s="32"/>
+      <c r="CC19" s="41"/>
+      <c r="CD19" s="31"/>
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="32"/>
+    </row>
+    <row r="20" spans="1:84">
+      <c r="A20" s="41"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="31"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="31"/>
+      <c r="AQ20" s="31"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="31"/>
+      <c r="AZ20" s="33"/>
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="31"/>
+      <c r="BC20" s="31"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="31"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="41"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="42"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="31"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="31"/>
+      <c r="BO20" s="31"/>
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="31"/>
+      <c r="BR20" s="31"/>
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="31"/>
+      <c r="BU20" s="32"/>
+      <c r="BV20" s="41"/>
+      <c r="BW20" s="31"/>
+      <c r="BX20" s="31"/>
+      <c r="BY20" s="32"/>
+      <c r="BZ20" s="41"/>
+      <c r="CA20" s="31"/>
+      <c r="CB20" s="32"/>
+      <c r="CC20" s="41"/>
+      <c r="CD20" s="31"/>
+      <c r="CE20" s="31"/>
+      <c r="CF20" s="32"/>
+    </row>
+    <row r="21" spans="1:84">
+      <c r="A21" s="41"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="33"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="41"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="31"/>
+      <c r="BR21" s="31"/>
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="31"/>
+      <c r="BU21" s="32"/>
+      <c r="BV21" s="41"/>
+      <c r="BW21" s="31"/>
+      <c r="BX21" s="31"/>
+      <c r="BY21" s="32"/>
+      <c r="BZ21" s="41"/>
+      <c r="CA21" s="31"/>
+      <c r="CB21" s="32"/>
+      <c r="CC21" s="41"/>
+      <c r="CD21" s="31"/>
+      <c r="CE21" s="31"/>
+      <c r="CF21" s="32"/>
+    </row>
+    <row r="22" spans="1:84">
+      <c r="A22" s="41"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="33"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="41"/>
+      <c r="BH22" s="42"/>
+      <c r="BI22" s="42"/>
+      <c r="BJ22" s="42"/>
+      <c r="BK22" s="42"/>
+      <c r="BL22" s="31"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="31"/>
+      <c r="BO22" s="31"/>
+      <c r="BP22" s="31"/>
+      <c r="BQ22" s="31"/>
+      <c r="BR22" s="31"/>
+      <c r="BS22" s="31"/>
+      <c r="BT22" s="31"/>
+      <c r="BU22" s="32"/>
+      <c r="BV22" s="41"/>
+      <c r="BW22" s="31"/>
+      <c r="BX22" s="31"/>
+      <c r="BY22" s="32"/>
+      <c r="BZ22" s="41"/>
+      <c r="CA22" s="31"/>
+      <c r="CB22" s="32"/>
+      <c r="CC22" s="41"/>
+      <c r="CD22" s="31"/>
+      <c r="CE22" s="31"/>
+      <c r="CF22" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AC22"/>
-    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="P7:AJ7"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AN7:AR8"/>
+    <mergeCell ref="AS7:BF8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="A2:AD3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="Y4:AZ4"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="BC7:BQ8"/>
-    <mergeCell ref="BR7:BU8"/>
-    <mergeCell ref="BV7:BX8"/>
-    <mergeCell ref="BY7:CB8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="L7:AF7"/>
-    <mergeCell ref="AG7:AI8"/>
-    <mergeCell ref="AJ7:AN8"/>
-    <mergeCell ref="AO7:BB8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="BK6:BM6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,7 +5126,7 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="38" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5040,27 +5136,27 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="45">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="76"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="76"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="76"/>
+      <c r="B8" s="35"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="76"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="76"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="76"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
@@ -5083,30 +5179,30 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="80"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="76"/>
+      <c r="B21" s="35"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="76"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="76"/>
+      <c r="B23" s="35"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="76"/>
+      <c r="B24" s="35"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="76"/>
+      <c r="B25" s="35"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="76"/>
+      <c r="B26" s="35"/>
     </row>
     <row r="30" spans="1:2">
       <c r="B30" t="s">
@@ -5124,7 +5220,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="38" t="s">
         <v>49</v>
       </c>
     </row>
@@ -5139,25 +5235,25 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="22.5">
-      <c r="B39" s="78"/>
+      <c r="B39" s="37"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="76"/>
+      <c r="B40" s="35"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="76"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="76"/>
+      <c r="B42" s="35"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="B43" s="76"/>
+      <c r="B43" s="35"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" s="76"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="B45" s="76"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" t="s">
@@ -5172,6 +5268,7 @@
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
+++ b/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A2D86-236B-4197-A69D-38C47474CA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D10DD-F532-41C2-87E5-B9A8769B007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-94" yWindow="-94" windowWidth="16645" windowHeight="8725" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>画面名</t>
   </si>
@@ -925,31 +925,10 @@
     <t>ステートメントカバレッジ</t>
   </si>
   <si>
-    <t>　ステートメントカバレッジの達成基準は、与えられたプログラムの命令文を少なくとも1回テストすることと定義される。着目点は命令文で、コード中の命令文の総数を分母として、そのうちテスト実施（設計）したの数の総和を分子に計算を行うとステートメントカバレッジ（％）が得られる。</t>
-  </si>
-  <si>
-    <t>コードカバレッジの1つで、プログラムコード内部の命令文（ステートメント）全体のうち、テストを実施した割合を示す。コード内のすべての命令文を少なくとも1回は実行するようにテストを設計する。</t>
-  </si>
-  <si>
-    <t>　コード内のすべての条件について、結果（真と偽の双方）が少なくとも1回は出力されるようにテストを設計する。PとQの2つ条件式からなる判定条件ならば、条件式Pでの「真／偽」と条件式Qでの「偽／真」がそれぞれ出力されればよい。</t>
-  </si>
-  <si>
-    <t>　コンディションカバレッジの達成基準は、与えられたプログラムのすべての入口と出口、および条件文の可能なすべての結果を少なくとも1回テストすることと定義される。着目点は個々の条件文（条件式、単一条件、個別条件）で、複数の条件がANDやORで結合されて判定文を構成してもこれらの判定は考慮しない。条件文は真と偽の2つの結果を持つので、コード中の条件文の総数×2を分母として、そのうちテスト実施（設計）したの数の総和を分子に計算を行うとコンディションカバレッジ（％）が得られる。</t>
-  </si>
-  <si>
     <t>コンディションカバレッジ</t>
   </si>
   <si>
     <t>ブランチカバレッジは、分岐に着目したカバレッジです。</t>
-  </si>
-  <si>
-    <t>ステートメントカバレッジの場合、命令文に着目したカバレッジ基準ですので、if文においてelse側を省略している場合など、コーディングされていない処理はテスト対象となりません。</t>
-  </si>
-  <si>
-    <t>それに対し、ブランチカバレッジは、コーディングの有無に関係なく、すべての分岐の真/偽を確認する必要があります。</t>
-  </si>
-  <si>
-    <t>また、ブランチカバレッジが100%の時は、ステートメントカバレッジも100%になりますので、ブランチカバレッジは、ステートメントカバレッジより強度の強いカバレッジ基準と言えます。</t>
   </si>
   <si>
     <r>
@@ -1003,10 +982,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>　コードカバレッジの1つで、テスト対象となるプログラムコード内部の条件文（コンディション）のすべての可能な結果（真偽）のうち、テストを実施した割合を示す。</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>C2：コンディションカバレッジ</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -1045,26 +1020,74 @@
     <t>」</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>　ステートメントカバレッジの達成基準は、与えられたプログラムの命令文を少なくとも1回テストすることと定義される。</t>
+  </si>
+  <si>
+    <t>着目点は命令文で、コード中の命令文の総数を分母として、そのうちテスト実施（設計）したの数の総和を分子に計算を行うと</t>
+  </si>
+  <si>
+    <t>ステートメントカバレッジ（％）が得られる。</t>
+  </si>
+  <si>
+    <t>コードカバレッジの1つで、プログラムコード内部の命令文（ステートメント）全体のうち、テストを実施した割合を示す。</t>
+  </si>
+  <si>
+    <t>コード内のすべての命令文を少なくとも1回は実行するようにテストを設計する。</t>
+  </si>
+  <si>
+    <t>ステートメントカバレッジの場合、命令文に着目したカバレッジ基準ですので、if文においてelse側を省略している場合など、</t>
+  </si>
+  <si>
+    <t>コーディングされていない処理はテスト対象となりません。それに対し、ブランチカバレッジは、コーディングの有無に関係なく、</t>
+  </si>
+  <si>
+    <t>すべての分岐の真/偽を確認する必要があります。また、ブランチカバレッジが100%の時は、ステートメントカバレッジも</t>
+  </si>
+  <si>
+    <t>100%になりますので、ブランチカバレッジは、ステートメントカバレッジより強度の強いカバレッジ基準と言えます。</t>
+  </si>
+  <si>
+    <t>　コードカバレッジの1つで、テスト対象となるプログラムコード内部の条件文（コンディション）のすべての可能な結果（真偽）のうち、</t>
+  </si>
+  <si>
+    <t>　テストを実施した割合を示す。コード内のすべての条件について、結果（真と偽の双方）が少なくとも1回は出力されるようにテストを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  設計する。PとQの2つ条件式からなる判定条件ならば、条件式Pでの「真／偽」と条件式Qでの「偽／真」がそれぞれ出力されればよい。</t>
+  </si>
+  <si>
+    <t>　コンディションカバレッジの達成基準は、与えられたプログラムのすべての入口と出口、および条件文の可能なすべての結果</t>
+  </si>
+  <si>
+    <t>を少なくとも1回テストすることと定義される。着目点は個々の条件文（条件式、単一条件、個別条件）で、複数の条件がAND</t>
+  </si>
+  <si>
+    <t>やORで結合されて判定文を構成してもこれらの判定は考慮しない。条件文は真と偽の2つの結果を持つので、コード中の条件文</t>
+  </si>
+  <si>
+    <t>の総数×2を分母として、そのうちテスト実施（設計）したの数の総和を分子に計算を行うとコンディションカバレッジ（％）が得られる。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
   <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1081,7 +1104,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1107,14 +1130,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1544,7 +1567,7 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1759,6 +1782,123 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1806,123 +1946,6 @@
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1953,14 +1976,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2014,14 +2037,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2075,14 +2098,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2496,16 +2519,16 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.25" style="2"/>
-    <col min="22" max="22" width="5.25" style="1"/>
-    <col min="23" max="23" width="5.25" style="2"/>
-    <col min="24" max="16384" width="5.25" style="1"/>
+    <col min="1" max="21" width="5.26953125" style="2"/>
+    <col min="22" max="22" width="5.26953125" style="1"/>
+    <col min="23" max="23" width="5.26953125" style="2"/>
+    <col min="24" max="16384" width="5.26953125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1">
@@ -2583,7 +2606,7 @@
       <c r="A13" s="8"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="14" spans="1:24" s="3" customFormat="1">
       <c r="A14" s="8"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -2619,7 +2642,7 @@
       <c r="R15" s="21"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="30">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="21">
       <c r="A16" s="8"/>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -2639,7 +2662,7 @@
       <c r="R16" s="21"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="17" spans="1:24" s="3" customFormat="1">
       <c r="A17" s="8"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -2657,7 +2680,7 @@
       <c r="R17" s="21"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="18" spans="1:24" s="3" customFormat="1">
       <c r="A18" s="8"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -2677,7 +2700,7 @@
       <c r="R18" s="58"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="19" spans="1:24" s="3" customFormat="1">
       <c r="A19" s="8"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -2697,7 +2720,7 @@
       <c r="R19" s="61"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="20" spans="1:24" s="3" customFormat="1">
       <c r="A20" s="8"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -2715,7 +2738,7 @@
       <c r="R20" s="64"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="21" spans="1:24" s="3" customFormat="1">
       <c r="A21" s="8"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -2733,7 +2756,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="18">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="13">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -2753,7 +2776,7 @@
       <c r="R22" s="66"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="23" spans="1:24" s="3" customFormat="1">
       <c r="A23" s="8"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -2773,7 +2796,7 @@
       <c r="R23" s="69"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="24" spans="1:24" s="3" customFormat="1">
       <c r="A24" s="8"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -2791,7 +2814,7 @@
       <c r="R24" s="72"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="3" customFormat="1" ht="16.5">
+    <row r="25" spans="1:24" s="3" customFormat="1">
       <c r="A25" s="8"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -2809,7 +2832,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.5">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -2992,7 +3015,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3002,18 +3025,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="14"/>
+    <col min="1" max="1" width="3.08984375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.6328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.26953125" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3139,26 +3162,26 @@
       <selection activeCell="AZ12" sqref="AZ12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="3" width="2.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="28" customWidth="1"/>
-    <col min="5" max="10" width="2.125" style="26" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="26" customWidth="1"/>
-    <col min="12" max="27" width="2.125" style="26" customWidth="1"/>
-    <col min="28" max="28" width="2.125" style="27" customWidth="1"/>
-    <col min="29" max="31" width="2.125" style="26" customWidth="1"/>
-    <col min="32" max="32" width="2.125" style="28" customWidth="1"/>
-    <col min="33" max="43" width="2.125" style="26" customWidth="1"/>
-    <col min="44" max="44" width="2.125" style="27" customWidth="1"/>
-    <col min="45" max="51" width="2.125" style="26" customWidth="1"/>
-    <col min="52" max="52" width="2.125" style="27" customWidth="1"/>
-    <col min="53" max="55" width="2.125" style="26" customWidth="1"/>
-    <col min="56" max="56" width="2.125" style="28" customWidth="1"/>
-    <col min="57" max="59" width="2.125" style="26" customWidth="1"/>
-    <col min="60" max="63" width="2.125" style="28" customWidth="1"/>
-    <col min="64" max="97" width="2.125" style="26" customWidth="1"/>
-    <col min="98" max="16384" width="8.25" style="26"/>
+    <col min="1" max="3" width="2.08984375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="2.08984375" style="28" customWidth="1"/>
+    <col min="5" max="10" width="2.08984375" style="26" customWidth="1"/>
+    <col min="11" max="11" width="2.6328125" style="26" customWidth="1"/>
+    <col min="12" max="27" width="2.08984375" style="26" customWidth="1"/>
+    <col min="28" max="28" width="2.08984375" style="27" customWidth="1"/>
+    <col min="29" max="31" width="2.08984375" style="26" customWidth="1"/>
+    <col min="32" max="32" width="2.08984375" style="28" customWidth="1"/>
+    <col min="33" max="43" width="2.08984375" style="26" customWidth="1"/>
+    <col min="44" max="44" width="2.08984375" style="27" customWidth="1"/>
+    <col min="45" max="51" width="2.08984375" style="26" customWidth="1"/>
+    <col min="52" max="52" width="2.08984375" style="27" customWidth="1"/>
+    <col min="53" max="55" width="2.08984375" style="26" customWidth="1"/>
+    <col min="56" max="56" width="2.08984375" style="28" customWidth="1"/>
+    <col min="57" max="59" width="2.08984375" style="26" customWidth="1"/>
+    <col min="60" max="63" width="2.08984375" style="28" customWidth="1"/>
+    <col min="64" max="97" width="2.08984375" style="26" customWidth="1"/>
+    <col min="98" max="16384" width="8.26953125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
@@ -3233,38 +3256,38 @@
       <c r="BQ1" s="46"/>
     </row>
     <row r="2" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
+      <c r="A2" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
       <c r="AU2" s="48"/>
       <c r="AV2" s="48"/>
       <c r="AW2" s="48"/>
@@ -3290,36 +3313,36 @@
       <c r="BQ2" s="46"/>
     </row>
     <row r="3" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="93"/>
-      <c r="T3" s="93"/>
-      <c r="U3" s="93"/>
-      <c r="V3" s="93"/>
-      <c r="W3" s="93"/>
-      <c r="X3" s="93"/>
-      <c r="Y3" s="93"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="93"/>
-      <c r="AD3" s="93"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
       <c r="AU3" s="48"/>
       <c r="AV3" s="48"/>
       <c r="AW3" s="48"/>
@@ -3345,406 +3368,406 @@
       <c r="BQ3" s="50"/>
     </row>
     <row r="4" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="A4" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="73" t="s">
+      <c r="K4" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110"/>
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="111"/>
+      <c r="BA4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="74"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="76">
+      <c r="BB4" s="113"/>
+      <c r="BC4" s="114"/>
+      <c r="BD4" s="115">
         <v>44676</v>
       </c>
-      <c r="BE4" s="77"/>
-      <c r="BF4" s="77"/>
-      <c r="BG4" s="77"/>
-      <c r="BH4" s="77"/>
-      <c r="BI4" s="77"/>
-      <c r="BJ4" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="74"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="76" t="s">
+      <c r="BE4" s="116"/>
+      <c r="BF4" s="116"/>
+      <c r="BG4" s="116"/>
+      <c r="BH4" s="116"/>
+      <c r="BI4" s="116"/>
+      <c r="BJ4" s="112" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK4" s="113"/>
+      <c r="BL4" s="114"/>
+      <c r="BM4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="77"/>
-      <c r="BO4" s="77"/>
-      <c r="BP4" s="77"/>
+      <c r="BN4" s="116"/>
+      <c r="BO4" s="116"/>
+      <c r="BP4" s="116"/>
       <c r="BQ4" s="52"/>
     </row>
     <row r="5" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="A5" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="78" t="s">
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="84"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="84"/>
-      <c r="AM5" s="84"/>
-      <c r="AN5" s="84"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="84"/>
-      <c r="AU5" s="84"/>
-      <c r="AV5" s="84"/>
-      <c r="AW5" s="84"/>
-      <c r="AX5" s="84"/>
-      <c r="AY5" s="84"/>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="86" t="s">
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="123"/>
+      <c r="AA5" s="123"/>
+      <c r="AB5" s="123"/>
+      <c r="AC5" s="123"/>
+      <c r="AD5" s="123"/>
+      <c r="AE5" s="123"/>
+      <c r="AF5" s="123"/>
+      <c r="AG5" s="123"/>
+      <c r="AH5" s="123"/>
+      <c r="AI5" s="123"/>
+      <c r="AJ5" s="123"/>
+      <c r="AK5" s="123"/>
+      <c r="AL5" s="123"/>
+      <c r="AM5" s="123"/>
+      <c r="AN5" s="123"/>
+      <c r="AO5" s="123"/>
+      <c r="AP5" s="123"/>
+      <c r="AQ5" s="123"/>
+      <c r="AR5" s="123"/>
+      <c r="AS5" s="123"/>
+      <c r="AT5" s="123"/>
+      <c r="AU5" s="123"/>
+      <c r="AV5" s="123"/>
+      <c r="AW5" s="123"/>
+      <c r="AX5" s="123"/>
+      <c r="AY5" s="123"/>
+      <c r="AZ5" s="124"/>
+      <c r="BA5" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="88"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="84"/>
-      <c r="BO5" s="84"/>
-      <c r="BP5" s="84"/>
+      <c r="BB5" s="126"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
+      <c r="BI5" s="126"/>
+      <c r="BJ5" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK5" s="126"/>
+      <c r="BL5" s="127"/>
+      <c r="BM5" s="126"/>
+      <c r="BN5" s="123"/>
+      <c r="BO5" s="123"/>
+      <c r="BP5" s="123"/>
       <c r="BQ5" s="54"/>
     </row>
-    <row r="6" spans="1:84" ht="19.5" thickTop="1">
-      <c r="E6" s="126"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
+    <row r="6" spans="1:84" ht="15" thickTop="1">
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
       <c r="AF6" s="26"/>
       <c r="AK6" s="29"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="127"/>
-      <c r="BN6" s="127"/>
-      <c r="BO6" s="126"/>
-      <c r="BP6" s="127"/>
-      <c r="BQ6" s="127"/>
+      <c r="BL6" s="81"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="81"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="106" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="89" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="119"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="106" t="s">
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
+      <c r="S7" s="96"/>
+      <c r="T7" s="96"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="96"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="96"/>
+      <c r="AB7" s="96"/>
+      <c r="AC7" s="96"/>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="96"/>
+      <c r="AG7" s="96"/>
+      <c r="AH7" s="96"/>
+      <c r="AI7" s="96"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="121"/>
-      <c r="AM7" s="122"/>
-      <c r="AN7" s="112" t="s">
+      <c r="AL7" s="77"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="113"/>
-      <c r="AP7" s="113"/>
-      <c r="AQ7" s="114"/>
-      <c r="AR7" s="115"/>
-      <c r="AS7" s="106" t="s">
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="90"/>
+      <c r="AR7" s="91"/>
+      <c r="AS7" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="107"/>
-      <c r="AV7" s="107"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="107"/>
-      <c r="BA7" s="107"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="107"/>
-      <c r="BF7" s="108"/>
-      <c r="BG7" s="106" t="s">
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="84"/>
+      <c r="BG7" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="107"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="107"/>
-      <c r="BN7" s="107"/>
-      <c r="BO7" s="107"/>
-      <c r="BP7" s="107"/>
-      <c r="BQ7" s="107"/>
-      <c r="BR7" s="107"/>
-      <c r="BS7" s="107"/>
-      <c r="BT7" s="107"/>
-      <c r="BU7" s="108"/>
-      <c r="BV7" s="112" t="s">
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="83"/>
+      <c r="BL7" s="83"/>
+      <c r="BM7" s="83"/>
+      <c r="BN7" s="83"/>
+      <c r="BO7" s="83"/>
+      <c r="BP7" s="83"/>
+      <c r="BQ7" s="83"/>
+      <c r="BR7" s="83"/>
+      <c r="BS7" s="83"/>
+      <c r="BT7" s="83"/>
+      <c r="BU7" s="84"/>
+      <c r="BV7" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="BW7" s="113"/>
-      <c r="BX7" s="114"/>
-      <c r="BY7" s="115"/>
-      <c r="BZ7" s="112" t="s">
+      <c r="BW7" s="89"/>
+      <c r="BX7" s="90"/>
+      <c r="BY7" s="91"/>
+      <c r="BZ7" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="CA7" s="114"/>
-      <c r="CB7" s="115"/>
-      <c r="CC7" s="112" t="s">
+      <c r="CA7" s="90"/>
+      <c r="CB7" s="91"/>
+      <c r="CC7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="CD7" s="113"/>
-      <c r="CE7" s="114"/>
-      <c r="CF7" s="115"/>
+      <c r="CD7" s="89"/>
+      <c r="CE7" s="90"/>
+      <c r="CF7" s="91"/>
     </row>
     <row r="8" spans="1:84">
-      <c r="A8" s="123"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="124"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="89" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="89" t="s">
+      <c r="Q8" s="80"/>
+      <c r="R8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="90"/>
-      <c r="T8" s="89" t="s">
+      <c r="S8" s="80"/>
+      <c r="T8" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="90"/>
-      <c r="V8" s="89" t="s">
+      <c r="U8" s="80"/>
+      <c r="V8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="90"/>
-      <c r="X8" s="89" t="s">
+      <c r="W8" s="80"/>
+      <c r="X8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="89" t="s">
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="90"/>
-      <c r="AB8" s="89" t="s">
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="90"/>
-      <c r="AD8" s="89" t="s">
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="90"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="80"/>
       <c r="AH8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="31"/>
       <c r="AJ8" s="32"/>
-      <c r="AK8" s="123"/>
-      <c r="AL8" s="124"/>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="116"/>
-      <c r="AO8" s="117"/>
-      <c r="AP8" s="117"/>
-      <c r="AQ8" s="117"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="109"/>
-      <c r="AT8" s="110"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="109"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="110"/>
-      <c r="BJ8" s="110"/>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="110"/>
-      <c r="BM8" s="110"/>
-      <c r="BN8" s="110"/>
-      <c r="BO8" s="110"/>
-      <c r="BP8" s="110"/>
-      <c r="BQ8" s="110"/>
-      <c r="BR8" s="110"/>
-      <c r="BS8" s="110"/>
-      <c r="BT8" s="110"/>
-      <c r="BU8" s="111"/>
-      <c r="BV8" s="116"/>
-      <c r="BW8" s="117"/>
-      <c r="BX8" s="117"/>
-      <c r="BY8" s="118"/>
-      <c r="BZ8" s="116"/>
-      <c r="CA8" s="117"/>
-      <c r="CB8" s="118"/>
-      <c r="CC8" s="116"/>
-      <c r="CD8" s="117"/>
-      <c r="CE8" s="117"/>
-      <c r="CF8" s="118"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="94"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BC8" s="86"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="86"/>
+      <c r="BF8" s="87"/>
+      <c r="BG8" s="85"/>
+      <c r="BH8" s="86"/>
+      <c r="BI8" s="86"/>
+      <c r="BJ8" s="86"/>
+      <c r="BK8" s="86"/>
+      <c r="BL8" s="86"/>
+      <c r="BM8" s="86"/>
+      <c r="BN8" s="86"/>
+      <c r="BO8" s="86"/>
+      <c r="BP8" s="86"/>
+      <c r="BQ8" s="86"/>
+      <c r="BR8" s="86"/>
+      <c r="BS8" s="86"/>
+      <c r="BT8" s="86"/>
+      <c r="BU8" s="87"/>
+      <c r="BV8" s="92"/>
+      <c r="BW8" s="93"/>
+      <c r="BX8" s="93"/>
+      <c r="BY8" s="94"/>
+      <c r="BZ8" s="92"/>
+      <c r="CA8" s="93"/>
+      <c r="CB8" s="94"/>
+      <c r="CC8" s="92"/>
+      <c r="CD8" s="93"/>
+      <c r="CE8" s="93"/>
+      <c r="CF8" s="94"/>
     </row>
     <row r="9" spans="1:84">
       <c r="A9" s="41"/>
@@ -3762,29 +3785,29 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="90"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="79"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="80"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="31"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL9" s="31"/>
       <c r="AM9" s="32"/>
@@ -3850,29 +3873,29 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="90"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="90"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="90"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="90"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="90"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="80"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="31"/>
       <c r="AJ10" s="32"/>
       <c r="AK10" s="41" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AL10" s="31"/>
       <c r="AM10" s="32"/>
@@ -3938,24 +3961,24 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="90"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="80"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
       <c r="AJ11" s="32"/>
@@ -4024,24 +4047,24 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="90"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="80"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="79"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="80"/>
       <c r="AH12" s="30"/>
       <c r="AI12" s="31"/>
       <c r="AJ12" s="32"/>
@@ -4110,24 +4133,24 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="90"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="90"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="90"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="79"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="79"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="80"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="32"/>
@@ -4196,24 +4219,24 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="90"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="90"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="90"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="90"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="79"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="79"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="79"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="80"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="32"/>
@@ -4282,24 +4305,24 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="90"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="91"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="90"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="80"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="80"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="80"/>
+      <c r="AB15" s="79"/>
+      <c r="AC15" s="80"/>
+      <c r="AD15" s="79"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="80"/>
       <c r="AH15" s="30"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="32"/>
@@ -4368,24 +4391,24 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="90"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="90"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="90"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="91"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="90"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="80"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="80"/>
       <c r="AH16" s="30"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="32"/>
@@ -4454,24 +4477,24 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="90"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="80"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="80"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="80"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="80"/>
       <c r="AH17" s="30"/>
       <c r="AI17" s="31"/>
       <c r="AJ17" s="32"/>
@@ -4540,24 +4563,24 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="90"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="91"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="90"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="80"/>
+      <c r="AD18" s="79"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="80"/>
       <c r="AH18" s="30"/>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="32"/>
@@ -4626,24 +4649,24 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="90"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="91"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="90"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="79"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="79"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="80"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="31"/>
       <c r="AJ19" s="32"/>
@@ -4712,24 +4735,24 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="91"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="90"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="80"/>
       <c r="AH20" s="30"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="32"/>
@@ -4798,24 +4821,24 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="90"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="80"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="80"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="80"/>
       <c r="AH21" s="30"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="32"/>
@@ -4884,24 +4907,24 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="90"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="80"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="80"/>
       <c r="AH22" s="30"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="32"/>
@@ -4956,123 +4979,18 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
-    <mergeCell ref="CC7:CF8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="P7:AJ7"/>
-    <mergeCell ref="AK7:AM8"/>
-    <mergeCell ref="AN7:AR8"/>
-    <mergeCell ref="AS7:BF8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
     <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="AD22:AG22"/>
@@ -5097,18 +5015,123 @@
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="P7:AJ7"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AN7:AR8"/>
+    <mergeCell ref="AS7:BF8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5117,31 +5140,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
-  <dimension ref="A2:B49"/>
+  <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="17.5">
       <c r="A2" s="38" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45">
-      <c r="B5" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.5">
+      <c r="B6" s="36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="35"/>
@@ -5158,42 +5183,46 @@
     <row r="11" spans="1:2">
       <c r="B11" s="35"/>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
+    <row r="12" spans="1:2">
+      <c r="B12" s="35"/>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>47</v>
+      <c r="B17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="B20" s="39"/>
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" s="35"/>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="35"/>
+      <c r="B22" s="40" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="35"/>
+      <c r="B23" s="39"/>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="35"/>
@@ -5204,65 +5233,99 @@
     <row r="26" spans="1:2">
       <c r="B26" s="35"/>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>44</v>
+    <row r="27" spans="1:2">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="35"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="35"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38" t="s">
-        <v>49</v>
+      <c r="B35" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="22.5">
-      <c r="B39" s="37"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17.5">
+      <c r="A39" s="38" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="35"/>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="35"/>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="B42" s="35"/>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="B43" s="35"/>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="B44" s="35"/>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="22.5">
+      <c r="B44" s="37"/>
     </row>
     <row r="45" spans="1:2">
       <c r="B45" s="35"/>
     </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="35"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="35"/>
+    </row>
     <row r="48" spans="1:2">
-      <c r="B48" t="s">
-        <v>40</v>
-      </c>
+      <c r="B48" s="35"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>39</v>
+      <c r="B49" s="35"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="35"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
+++ b/DOC/単体テスト/（TEMPLATE）EMS(EMSM)_単体テスト仕様書_経費管理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Softtech\src\ems\DOC\単体テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5D10DD-F532-41C2-87E5-B9A8769B007F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3236E7A-C651-4ADA-828D-CF008860191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-94" yWindow="-94" windowWidth="16645" windowHeight="8725" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>画面名</t>
   </si>
@@ -1067,6 +1067,13 @@
   </si>
   <si>
     <t>の総数×2を分母として、そのうちテスト実施（設計）したの数の総和を分子に計算を行うとコンディションカバレッジ（％）が得られる。</t>
+  </si>
+  <si>
+    <t>社員情報変更画面</t>
+  </si>
+  <si>
+    <t>社員情報IDは採番され、
+社員情報更新画面に表示される。</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1782,28 +1789,163 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1812,140 +1954,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="26" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="22" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="24" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2172,8 +2191,8 @@
       <sheetName val="CODE"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
@@ -2208,10 +2227,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2227,10 +2246,10 @@
       <sheetName val="定数"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2519,16 +2538,16 @@
   </sheetPr>
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H15" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.26953125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.23046875" defaultRowHeight="11.6"/>
   <cols>
-    <col min="1" max="21" width="5.26953125" style="2"/>
-    <col min="22" max="22" width="5.26953125" style="1"/>
-    <col min="23" max="23" width="5.26953125" style="2"/>
-    <col min="24" max="16384" width="5.26953125" style="1"/>
+    <col min="1" max="21" width="5.23046875" style="2"/>
+    <col min="22" max="22" width="5.23046875" style="1"/>
+    <col min="23" max="23" width="5.23046875" style="2"/>
+    <col min="24" max="16384" width="5.23046875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1">
@@ -2756,7 +2775,7 @@
       <c r="R21" s="21"/>
       <c r="X21" s="7"/>
     </row>
-    <row r="22" spans="1:24" s="3" customFormat="1" ht="13">
+    <row r="22" spans="1:24" s="3" customFormat="1" ht="13.3">
       <c r="A22" s="8"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -2832,7 +2851,7 @@
       <c r="R25" s="21"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="3" customFormat="1" ht="13">
+    <row r="26" spans="1:24" s="3" customFormat="1" ht="13.3">
       <c r="A26" s="8"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
@@ -3015,7 +3034,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="0.78740157480314998" bottom="0.43307086614173201" header="0.39370078740157499" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -3025,18 +3044,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="58.6328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="8.26953125" style="14"/>
+    <col min="1" max="1" width="3.07421875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="4.4609375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="58.61328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.61328125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.61328125" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="8.23046875" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -3158,30 +3177,30 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:CF22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.23046875" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="3" width="2.08984375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" style="28" customWidth="1"/>
-    <col min="5" max="10" width="2.08984375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="2.6328125" style="26" customWidth="1"/>
-    <col min="12" max="27" width="2.08984375" style="26" customWidth="1"/>
-    <col min="28" max="28" width="2.08984375" style="27" customWidth="1"/>
-    <col min="29" max="31" width="2.08984375" style="26" customWidth="1"/>
-    <col min="32" max="32" width="2.08984375" style="28" customWidth="1"/>
-    <col min="33" max="43" width="2.08984375" style="26" customWidth="1"/>
-    <col min="44" max="44" width="2.08984375" style="27" customWidth="1"/>
-    <col min="45" max="51" width="2.08984375" style="26" customWidth="1"/>
-    <col min="52" max="52" width="2.08984375" style="27" customWidth="1"/>
-    <col min="53" max="55" width="2.08984375" style="26" customWidth="1"/>
-    <col min="56" max="56" width="2.08984375" style="28" customWidth="1"/>
-    <col min="57" max="59" width="2.08984375" style="26" customWidth="1"/>
-    <col min="60" max="63" width="2.08984375" style="28" customWidth="1"/>
-    <col min="64" max="97" width="2.08984375" style="26" customWidth="1"/>
-    <col min="98" max="16384" width="8.26953125" style="26"/>
+    <col min="1" max="3" width="2.07421875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="2.07421875" style="28" customWidth="1"/>
+    <col min="5" max="10" width="2.07421875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="2.61328125" style="26" customWidth="1"/>
+    <col min="12" max="27" width="2.07421875" style="26" customWidth="1"/>
+    <col min="28" max="28" width="2.07421875" style="27" customWidth="1"/>
+    <col min="29" max="31" width="2.07421875" style="26" customWidth="1"/>
+    <col min="32" max="32" width="2.07421875" style="28" customWidth="1"/>
+    <col min="33" max="43" width="2.07421875" style="26" customWidth="1"/>
+    <col min="44" max="44" width="2.07421875" style="27" customWidth="1"/>
+    <col min="45" max="51" width="2.07421875" style="26" customWidth="1"/>
+    <col min="52" max="52" width="2.07421875" style="27" customWidth="1"/>
+    <col min="53" max="55" width="2.07421875" style="26" customWidth="1"/>
+    <col min="56" max="56" width="2.07421875" style="28" customWidth="1"/>
+    <col min="57" max="59" width="2.07421875" style="26" customWidth="1"/>
+    <col min="60" max="63" width="2.07421875" style="28" customWidth="1"/>
+    <col min="64" max="97" width="2.07421875" style="26" customWidth="1"/>
+    <col min="98" max="16384" width="8.23046875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
@@ -3256,38 +3275,38 @@
       <c r="BQ1" s="46"/>
     </row>
     <row r="2" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
       <c r="AU2" s="48"/>
       <c r="AV2" s="48"/>
       <c r="AW2" s="48"/>
@@ -3313,36 +3332,36 @@
       <c r="BQ2" s="46"/>
     </row>
     <row r="3" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="93"/>
       <c r="AU3" s="48"/>
       <c r="AV3" s="48"/>
       <c r="AW3" s="48"/>
@@ -3368,411 +3387,415 @@
       <c r="BQ3" s="50"/>
     </row>
     <row r="4" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="106" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108"/>
-      <c r="Y4" s="109" t="s">
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="111"/>
-      <c r="BA4" s="112" t="s">
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="104"/>
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="104"/>
+      <c r="AM4" s="104"/>
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="104"/>
+      <c r="AT4" s="104"/>
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="BB4" s="113"/>
-      <c r="BC4" s="114"/>
-      <c r="BD4" s="115">
+      <c r="BB4" s="74"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="76">
         <v>44676</v>
       </c>
-      <c r="BE4" s="116"/>
-      <c r="BF4" s="116"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="116"/>
-      <c r="BI4" s="116"/>
-      <c r="BJ4" s="112" t="s">
+      <c r="BE4" s="77"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="77"/>
+      <c r="BH4" s="77"/>
+      <c r="BI4" s="77"/>
+      <c r="BJ4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="BK4" s="113"/>
-      <c r="BL4" s="114"/>
-      <c r="BM4" s="115" t="s">
+      <c r="BK4" s="74"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="BN4" s="116"/>
-      <c r="BO4" s="116"/>
-      <c r="BP4" s="116"/>
+      <c r="BN4" s="77"/>
+      <c r="BO4" s="77"/>
+      <c r="BP4" s="77"/>
       <c r="BQ4" s="52"/>
     </row>
     <row r="5" spans="1:84" s="47" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53"/>
       <c r="J5" s="53"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="117" t="s">
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="123"/>
-      <c r="AA5" s="123"/>
-      <c r="AB5" s="123"/>
-      <c r="AC5" s="123"/>
-      <c r="AD5" s="123"/>
-      <c r="AE5" s="123"/>
-      <c r="AF5" s="123"/>
-      <c r="AG5" s="123"/>
-      <c r="AH5" s="123"/>
-      <c r="AI5" s="123"/>
-      <c r="AJ5" s="123"/>
-      <c r="AK5" s="123"/>
-      <c r="AL5" s="123"/>
-      <c r="AM5" s="123"/>
-      <c r="AN5" s="123"/>
-      <c r="AO5" s="123"/>
-      <c r="AP5" s="123"/>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
-      <c r="AS5" s="123"/>
-      <c r="AT5" s="123"/>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="123"/>
-      <c r="AW5" s="123"/>
-      <c r="AX5" s="123"/>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="124"/>
-      <c r="BA5" s="125" t="s">
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="84"/>
+      <c r="AJ5" s="84"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
+      <c r="AS5" s="84"/>
+      <c r="AT5" s="84"/>
+      <c r="AU5" s="84"/>
+      <c r="AV5" s="84"/>
+      <c r="AW5" s="84"/>
+      <c r="AX5" s="84"/>
+      <c r="AY5" s="84"/>
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="BB5" s="126"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="126"/>
-      <c r="BE5" s="126"/>
-      <c r="BF5" s="126"/>
-      <c r="BG5" s="126"/>
-      <c r="BH5" s="126"/>
-      <c r="BI5" s="126"/>
-      <c r="BJ5" s="125" t="s">
+      <c r="BB5" s="87"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="87"/>
+      <c r="BE5" s="87"/>
+      <c r="BF5" s="87"/>
+      <c r="BG5" s="87"/>
+      <c r="BH5" s="87"/>
+      <c r="BI5" s="87"/>
+      <c r="BJ5" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="BK5" s="126"/>
-      <c r="BL5" s="127"/>
-      <c r="BM5" s="126"/>
-      <c r="BN5" s="123"/>
-      <c r="BO5" s="123"/>
-      <c r="BP5" s="123"/>
+      <c r="BK5" s="87"/>
+      <c r="BL5" s="88"/>
+      <c r="BM5" s="87"/>
+      <c r="BN5" s="84"/>
+      <c r="BO5" s="84"/>
+      <c r="BP5" s="84"/>
       <c r="BQ5" s="54"/>
     </row>
     <row r="6" spans="1:84" ht="15" thickTop="1">
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
       <c r="AF6" s="26"/>
       <c r="AK6" s="29"/>
-      <c r="BL6" s="81"/>
-      <c r="BM6" s="82"/>
-      <c r="BN6" s="82"/>
-      <c r="BO6" s="81"/>
-      <c r="BP6" s="82"/>
-      <c r="BQ6" s="82"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="127"/>
+      <c r="BN6" s="127"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="127"/>
+      <c r="BQ6" s="127"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="79" t="s">
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="96"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="96"/>
-      <c r="X7" s="96"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-      <c r="AB7" s="96"/>
-      <c r="AC7" s="96"/>
-      <c r="AD7" s="96"/>
-      <c r="AE7" s="96"/>
-      <c r="AF7" s="96"/>
-      <c r="AG7" s="96"/>
-      <c r="AH7" s="96"/>
-      <c r="AI7" s="96"/>
-      <c r="AJ7" s="97"/>
-      <c r="AK7" s="73" t="s">
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="114"/>
+      <c r="AK7" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="88" t="s">
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="90"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="73" t="s">
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="108"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="83"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="84"/>
-      <c r="BG7" s="73" t="s">
+      <c r="AT7" s="121"/>
+      <c r="AU7" s="121"/>
+      <c r="AV7" s="121"/>
+      <c r="AW7" s="121"/>
+      <c r="AX7" s="121"/>
+      <c r="AY7" s="121"/>
+      <c r="AZ7" s="121"/>
+      <c r="BA7" s="121"/>
+      <c r="BB7" s="121"/>
+      <c r="BC7" s="121"/>
+      <c r="BD7" s="121"/>
+      <c r="BE7" s="121"/>
+      <c r="BF7" s="122"/>
+      <c r="BG7" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="BH7" s="83"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="83"/>
-      <c r="BK7" s="83"/>
-      <c r="BL7" s="83"/>
-      <c r="BM7" s="83"/>
-      <c r="BN7" s="83"/>
-      <c r="BO7" s="83"/>
-      <c r="BP7" s="83"/>
-      <c r="BQ7" s="83"/>
-      <c r="BR7" s="83"/>
-      <c r="BS7" s="83"/>
-      <c r="BT7" s="83"/>
-      <c r="BU7" s="84"/>
-      <c r="BV7" s="88" t="s">
+      <c r="BH7" s="121"/>
+      <c r="BI7" s="121"/>
+      <c r="BJ7" s="121"/>
+      <c r="BK7" s="121"/>
+      <c r="BL7" s="121"/>
+      <c r="BM7" s="121"/>
+      <c r="BN7" s="121"/>
+      <c r="BO7" s="121"/>
+      <c r="BP7" s="121"/>
+      <c r="BQ7" s="121"/>
+      <c r="BR7" s="121"/>
+      <c r="BS7" s="121"/>
+      <c r="BT7" s="121"/>
+      <c r="BU7" s="122"/>
+      <c r="BV7" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="BW7" s="89"/>
-      <c r="BX7" s="90"/>
-      <c r="BY7" s="91"/>
-      <c r="BZ7" s="88" t="s">
+      <c r="BW7" s="107"/>
+      <c r="BX7" s="108"/>
+      <c r="BY7" s="109"/>
+      <c r="BZ7" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="CA7" s="90"/>
-      <c r="CB7" s="91"/>
-      <c r="CC7" s="88" t="s">
+      <c r="CA7" s="108"/>
+      <c r="CB7" s="109"/>
+      <c r="CC7" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="CD7" s="89"/>
-      <c r="CE7" s="90"/>
-      <c r="CF7" s="91"/>
+      <c r="CD7" s="107"/>
+      <c r="CE7" s="108"/>
+      <c r="CF7" s="109"/>
     </row>
     <row r="8" spans="1:84">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="79" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="119"/>
+      <c r="N8" s="119"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="79" t="s">
+      <c r="Q8" s="90"/>
+      <c r="R8" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="79" t="s">
+      <c r="S8" s="90"/>
+      <c r="T8" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="80"/>
-      <c r="V8" s="79" t="s">
+      <c r="U8" s="90"/>
+      <c r="V8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="80"/>
-      <c r="X8" s="79" t="s">
+      <c r="W8" s="90"/>
+      <c r="X8" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="79" t="s">
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="79" t="s">
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="79" t="s">
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="80"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="90"/>
       <c r="AH8" s="30" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="31"/>
       <c r="AJ8" s="32"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="86"/>
-      <c r="AZ8" s="86"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86"/>
-      <c r="BE8" s="86"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="85"/>
-      <c r="BH8" s="86"/>
-      <c r="BI8" s="86"/>
-      <c r="BJ8" s="86"/>
-      <c r="BK8" s="86"/>
-      <c r="BL8" s="86"/>
-      <c r="BM8" s="86"/>
-      <c r="BN8" s="86"/>
-      <c r="BO8" s="86"/>
-      <c r="BP8" s="86"/>
-      <c r="BQ8" s="86"/>
-      <c r="BR8" s="86"/>
-      <c r="BS8" s="86"/>
-      <c r="BT8" s="86"/>
-      <c r="BU8" s="87"/>
-      <c r="BV8" s="92"/>
-      <c r="BW8" s="93"/>
-      <c r="BX8" s="93"/>
-      <c r="BY8" s="94"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="93"/>
-      <c r="CB8" s="94"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="93"/>
-      <c r="CE8" s="93"/>
-      <c r="CF8" s="94"/>
-    </row>
-    <row r="9" spans="1:84">
-      <c r="A9" s="41"/>
+      <c r="AK8" s="118"/>
+      <c r="AL8" s="119"/>
+      <c r="AM8" s="120"/>
+      <c r="AN8" s="110"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="112"/>
+      <c r="AS8" s="123"/>
+      <c r="AT8" s="124"/>
+      <c r="AU8" s="124"/>
+      <c r="AV8" s="124"/>
+      <c r="AW8" s="124"/>
+      <c r="AX8" s="124"/>
+      <c r="AY8" s="124"/>
+      <c r="AZ8" s="124"/>
+      <c r="BA8" s="124"/>
+      <c r="BB8" s="124"/>
+      <c r="BC8" s="124"/>
+      <c r="BD8" s="124"/>
+      <c r="BE8" s="124"/>
+      <c r="BF8" s="125"/>
+      <c r="BG8" s="123"/>
+      <c r="BH8" s="124"/>
+      <c r="BI8" s="124"/>
+      <c r="BJ8" s="124"/>
+      <c r="BK8" s="124"/>
+      <c r="BL8" s="124"/>
+      <c r="BM8" s="124"/>
+      <c r="BN8" s="124"/>
+      <c r="BO8" s="124"/>
+      <c r="BP8" s="124"/>
+      <c r="BQ8" s="124"/>
+      <c r="BR8" s="124"/>
+      <c r="BS8" s="124"/>
+      <c r="BT8" s="124"/>
+      <c r="BU8" s="125"/>
+      <c r="BV8" s="110"/>
+      <c r="BW8" s="111"/>
+      <c r="BX8" s="111"/>
+      <c r="BY8" s="112"/>
+      <c r="BZ8" s="110"/>
+      <c r="CA8" s="111"/>
+      <c r="CB8" s="112"/>
+      <c r="CC8" s="110"/>
+      <c r="CD8" s="111"/>
+      <c r="CE8" s="111"/>
+      <c r="CF8" s="112"/>
+    </row>
+    <row r="9" spans="1:84" ht="75" customHeight="1">
+      <c r="A9" s="41">
+        <v>1</v>
+      </c>
       <c r="B9" s="32"/>
-      <c r="C9" s="41"/>
+      <c r="C9" s="128" t="s">
+        <v>67</v>
+      </c>
       <c r="D9" s="42"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
@@ -3785,24 +3808,24 @@
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="32"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="80"/>
-      <c r="V9" s="79"/>
-      <c r="W9" s="80"/>
-      <c r="X9" s="79"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="79"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="79"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="79"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="80"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="90"/>
       <c r="AH9" s="30"/>
       <c r="AI9" s="31"/>
       <c r="AJ9" s="32"/>
@@ -3830,21 +3853,23 @@
       <c r="BD9" s="42"/>
       <c r="BE9" s="31"/>
       <c r="BF9" s="32"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="42"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="42"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31"/>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31"/>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="32"/>
+      <c r="BG9" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH9" s="130"/>
+      <c r="BI9" s="130"/>
+      <c r="BJ9" s="130"/>
+      <c r="BK9" s="130"/>
+      <c r="BL9" s="130"/>
+      <c r="BM9" s="130"/>
+      <c r="BN9" s="130"/>
+      <c r="BO9" s="130"/>
+      <c r="BP9" s="130"/>
+      <c r="BQ9" s="130"/>
+      <c r="BR9" s="130"/>
+      <c r="BS9" s="130"/>
+      <c r="BT9" s="130"/>
+      <c r="BU9" s="131"/>
       <c r="BV9" s="41"/>
       <c r="BW9" s="31"/>
       <c r="BX9" s="31"/>
@@ -3873,24 +3898,24 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="32"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="79"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="80"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="90"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="90"/>
       <c r="AH10" s="30"/>
       <c r="AI10" s="31"/>
       <c r="AJ10" s="32"/>
@@ -3961,24 +3986,24 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="32"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="80"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="90"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="31"/>
       <c r="AJ11" s="32"/>
@@ -4047,24 +4072,24 @@
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
       <c r="O12" s="32"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="80"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="80"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="91"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="90"/>
       <c r="AH12" s="30"/>
       <c r="AI12" s="31"/>
       <c r="AJ12" s="32"/>
@@ -4133,24 +4158,24 @@
       <c r="M13" s="31"/>
       <c r="N13" s="31"/>
       <c r="O13" s="32"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="79"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="79"/>
-      <c r="W13" s="80"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="80"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="80"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="80"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="90"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="90"/>
       <c r="AH13" s="30"/>
       <c r="AI13" s="31"/>
       <c r="AJ13" s="32"/>
@@ -4219,24 +4244,24 @@
       <c r="M14" s="31"/>
       <c r="N14" s="31"/>
       <c r="O14" s="32"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="80"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="90"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="91"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="90"/>
       <c r="AH14" s="30"/>
       <c r="AI14" s="31"/>
       <c r="AJ14" s="32"/>
@@ -4305,24 +4330,24 @@
       <c r="M15" s="31"/>
       <c r="N15" s="31"/>
       <c r="O15" s="32"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="79"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="79"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="80"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="90"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="91"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="90"/>
       <c r="AH15" s="30"/>
       <c r="AI15" s="31"/>
       <c r="AJ15" s="32"/>
@@ -4391,24 +4416,24 @@
       <c r="M16" s="31"/>
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="79"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="80"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="91"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="90"/>
       <c r="AH16" s="30"/>
       <c r="AI16" s="31"/>
       <c r="AJ16" s="32"/>
@@ -4477,24 +4502,24 @@
       <c r="M17" s="31"/>
       <c r="N17" s="31"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="80"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="91"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="90"/>
       <c r="AH17" s="30"/>
       <c r="AI17" s="31"/>
       <c r="AJ17" s="32"/>
@@ -4563,24 +4588,24 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="80"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="80"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="80"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="80"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="90"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="91"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="90"/>
       <c r="AH18" s="30"/>
       <c r="AI18" s="31"/>
       <c r="AJ18" s="32"/>
@@ -4649,24 +4674,24 @@
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="80"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="80"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="80"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="80"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="91"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="90"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="31"/>
       <c r="AJ19" s="32"/>
@@ -4735,24 +4760,24 @@
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="80"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="80"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="91"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="90"/>
       <c r="AH20" s="30"/>
       <c r="AI20" s="31"/>
       <c r="AJ20" s="32"/>
@@ -4821,24 +4846,24 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="80"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="80"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="91"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="90"/>
       <c r="AH21" s="30"/>
       <c r="AI21" s="31"/>
       <c r="AJ21" s="32"/>
@@ -4907,24 +4932,24 @@
       <c r="M22" s="31"/>
       <c r="N22" s="31"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="80"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="91"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="90"/>
       <c r="AH22" s="30"/>
       <c r="AI22" s="31"/>
       <c r="AJ22" s="32"/>
@@ -4978,19 +5003,125 @@
       <c r="CF22" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="BA4:BC4"/>
-    <mergeCell ref="BD4:BI4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BM4:BP4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:X5"/>
-    <mergeCell ref="Y5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BP5"/>
+  <mergeCells count="154">
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="BL6:BN6"/>
+    <mergeCell ref="BO6:BQ6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="BV7:BY8"/>
+    <mergeCell ref="BZ7:CB8"/>
+    <mergeCell ref="CC7:CF8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="P7:AJ7"/>
+    <mergeCell ref="AK7:AM8"/>
+    <mergeCell ref="AN7:AR8"/>
+    <mergeCell ref="AS7:BF8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="BG9:BU9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AG18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AG19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
     <mergeCell ref="Z22:AA22"/>
     <mergeCell ref="AB22:AC22"/>
     <mergeCell ref="AD22:AG22"/>
@@ -5015,123 +5146,18 @@
     <mergeCell ref="Z21:AA21"/>
     <mergeCell ref="AB21:AC21"/>
     <mergeCell ref="AD21:AG21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AG18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AG19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="BV7:BY8"/>
-    <mergeCell ref="BZ7:CB8"/>
-    <mergeCell ref="CC7:CF8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="P7:AJ7"/>
-    <mergeCell ref="AK7:AM8"/>
-    <mergeCell ref="AN7:AR8"/>
-    <mergeCell ref="AS7:BF8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="BL6:BN6"/>
-    <mergeCell ref="BO6:BQ6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="BG7:BU8"/>
+    <mergeCell ref="BA4:BC4"/>
+    <mergeCell ref="BD4:BI4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BM4:BP4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="Y5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BP5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5142,13 +5168,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D856004E-EA91-46CF-B516-9AE2B919E329}">
   <dimension ref="A2:B57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.5">
+    <row r="2" spans="1:2" ht="18">
       <c r="A2" s="38" t="s">
         <v>39</v>
       </c>
@@ -5163,7 +5189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.5">
+    <row r="6" spans="1:2" ht="42.45">
       <c r="B6" s="36" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.5">
+    <row r="39" spans="1:2" ht="18">
       <c r="A39" s="38" t="s">
         <v>41</v>
       </c>
@@ -5282,7 +5308,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="22.5">
+    <row r="44" spans="1:2" ht="22.75">
       <c r="B44" s="37"/>
     </row>
     <row r="45" spans="1:2">
